--- a/medicine/Enfance/La_Guerre_des_clans_(cycle_littéraire)/La_Guerre_des_clans_(cycle_littéraire).xlsx
+++ b/medicine/Enfance/La_Guerre_des_clans_(cycle_littéraire)/La_Guerre_des_clans_(cycle_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Guerre des clans (titre original : Warriors) est une série littéraire écrite par Erin Hunter, pseudonyme de Kate Cary, Cherith Baldry et Victoria Holmes, rejointes ensuite par Tui Sutherland puis par Gillian Philip, Inbali Iserles et enfin par Dan Jolley. Cette série a conquis des millions de lecteurs à travers le monde. Rien qu'en France elle comptabilise plus de 3 millions de ventes et a remporté plusieurs prix littéraires.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série d'origine anglaise créée par Erin Hunter raconte les aventures de chats sauvages répartis en plusieurs Clans : Le Clan du Tonnerre, le Clan du Vent, le Clan de la Rivière, le Clan de l'Ombre ainsi que le Clan du Ciel, qui sera découvert plus tard dans la série. Il y a également le Clan des Étoiles, composé des chats défunts, qui réside au sein de la "Toison Argentée". Réservé aux chats ayant fait et voulu le bien, il est opposé à la Forêt Sombre. Aux côtés des quatre principaux clans (Tonnerre, Vent, Rivière et Ombre), il existe celui du Ciel. Ce dernier cohabitait autrefois avec les autres dans la forêt mais, après l'arrivée des Bipèdes, ils durent tous fuir vers un autre territoire. De plus, d'autres groupes de chats tels que la Tribu de l'Eau Vive (les chats des montagnes) et le Clan du Sang (groupe de chats errants vivants sur le territoire des humains)‚ apparaissent au fil de la série.
 Le premier cycle de La Guerre des Clans a trait à la vie d'un jeune chat domestique roux, nommé Rusty, qui rêve de devenir un chat sauvage. Un jour, il tombe nez à nez avec un chat du Clan du Tonnerre, Nuage Gris, qui deviendra par la suite son meilleur ami. Il rencontre Étoile Bleue, la meneuse du Clan, qui lui propose de rejoindre le Clan du Tonnerre. Après avoir accepté, Rusty devient un apprenti (au même rang que Nuage Gris) et est renommé Nuage de Feu.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,11 +567,13 @@
           <t>Conception</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2003, Harper Collins demande à Victoria Holmes d’écrire une collection de livres de fantasy pour les jeunes ayant des chats pour sujets. D'abord réticente car elle n'aime ni les chats, ni la fantasy, celle-ci va cependant travailler sur le concept, enrichissant l’intrigue avec des guerres, de la politique, des vengeances, des amours impossibles et des conflits religieux[1]. Elle imagine ainsi des clans de chats sauvages ce qui permet de combiner l’indépendance et la liberté d’un animal sauvage avec une identification facile par le lecteur à un animal de compagnie. L’idée d’origine est d'écrire un unique roman. Toutefois, face à tous les développements élaborés par Victoria Holmes, l’éditeur décide de créer une série en six volumes.
-Le premier volume, Retour à l’état sauvage (Into the Wild), est écrit en trois mois par Kate Cary sous le pseudonyme d’Erin Hunter. Elle est épaulée par Victoria Holmes qui s’assure de la continuité de l’univers, de ses personnages et traditions[2]. Kate Cary a indiqué que s’insérer dans l’univers peuplé de chats construit par Victoria Holmes était facile en raison de son amour pour le félin domestique qui a, selon elle, une personnalité bien définie.
-La forêt fictive du roman est inspirée de la nouvelle forêt (New Forest)[3] située autour du Loch Lomond, de la forêt de Dean et des Highlands. Kate Cary est inspirée par les romans de fantasy d’Enid Blyton, de Lucy Maud Montgomery et par les aventures d’Alice Roy de Caroline Quine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2003, Harper Collins demande à Victoria Holmes d’écrire une collection de livres de fantasy pour les jeunes ayant des chats pour sujets. D'abord réticente car elle n'aime ni les chats, ni la fantasy, celle-ci va cependant travailler sur le concept, enrichissant l’intrigue avec des guerres, de la politique, des vengeances, des amours impossibles et des conflits religieux. Elle imagine ainsi des clans de chats sauvages ce qui permet de combiner l’indépendance et la liberté d’un animal sauvage avec une identification facile par le lecteur à un animal de compagnie. L’idée d’origine est d'écrire un unique roman. Toutefois, face à tous les développements élaborés par Victoria Holmes, l’éditeur décide de créer une série en six volumes.
+Le premier volume, Retour à l’état sauvage (Into the Wild), est écrit en trois mois par Kate Cary sous le pseudonyme d’Erin Hunter. Elle est épaulée par Victoria Holmes qui s’assure de la continuité de l’univers, de ses personnages et traditions. Kate Cary a indiqué que s’insérer dans l’univers peuplé de chats construit par Victoria Holmes était facile en raison de son amour pour le félin domestique qui a, selon elle, une personnalité bien définie.
+La forêt fictive du roman est inspirée de la nouvelle forêt (New Forest) située autour du Loch Lomond, de la forêt de Dean et des Highlands. Kate Cary est inspirée par les romans de fantasy d’Enid Blyton, de Lucy Maud Montgomery et par les aventures d’Alice Roy de Caroline Quine.
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,103 +604,420 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diffusion internationale
-La Guerre des clans comporte en anglais huit cycles de six romans chacun, ainsi que quatorze romans illustrés, six guides, treize hors-séries et dix-huit livres numériques en six compilations papier.
+          <t>Diffusion internationale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Guerre des clans comporte en anglais huit cycles de six romans chacun, ainsi que quatorze romans illustrés, six guides, treize hors-séries et dix-huit livres numériques en six compilations papier.
 Le premier tome de la série, Retour à l'état sauvage (Into the Wild), a été traduit en vingt-cinq langues.
-Diffusion en France
-La série est traduite en français par Aude Carlier[5], à l'exception des cinq premiers tomes du premier cycle, traduits par Cécile Pournin, fondatrice de Ki-oon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diffusion</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diffusion en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est traduite en français par Aude Carlier, à l'exception des cinq premiers tomes du premier cycle, traduits par Cécile Pournin, fondatrice de Ki-oon.
 Six cycles de La Guerre des clans ont été traduits intégralement en français : le cycle original La Guerre des clans ainsi que La Dernière Prophétie, Le Pouvoir des Étoiles, Les Signes du destin, L'Aube des clans et De l'Ombre à la Lumière. Chaque cycle est composé de six livres. Le cycle 7 est en cours de parution.
 Neuf hors-séries sont sortis en français : La Quête d'Étoile de Feu, La Prophétie d'Étoile Bleue, Le Destin d'Étoile de Feuille, La Promesse de l'élu, Le Secret de Croc Jaune, La Vengeance d'Étoile Filante, L'Épreuve d'Étoile de Ronce, La Vision de Vol de Papillon et Le Voyage d'Aile de Faucon.
 Neuf livres numériques sont sortis en français : L'Histoire de Feuille de Houx, Le Signe d'Étoile de Brume, Le Voyage d'Étoile de Givre, La Fureur de Griffe de Tigre, Le Souhait de Feuille de Lune, Le Silence d'Aile de Colombe, La Vengeance d'Ombre d'Erable, La Malédiction de Plume d'Oie et Les Adieux de Nuage de Jais.
-Quatre séries de romans illustrés de trois volumes chacune sont également éditées en français[6] : Les Aventures du Plume Grise, Étoile du Tigre et Sacha, Le Destin de Nuage de Jais et Le Clan du Ciel et l'Étranger.
+Quatre séries de romans illustrés de trois volumes chacune sont également éditées en français : Les Aventures du Plume Grise, Étoile du Tigre et Sacha, Le Destin de Nuage de Jais et Le Clan du Ciel et l'Étranger.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Liste des volumes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cycle I : La Guerre des clans
-Retour à l'état sauvage, Pocket Jeunesse, 2005 ((en) Into the Wild, 2003)  (ISBN 9782266168656)
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cycle I : La Guerre des clans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Retour à l'état sauvage, Pocket Jeunesse, 2005 ((en) Into the Wild, 2003)  (ISBN 9782266168656)
 À feu et à sang, Pocket Jeunesse, 2005 ((en) Fire and Ice, 2003)  (ISBN 9782266171465)
 Les Mystères de la forêt, Pocket Jeunesse, 2006 ((en) Forest of Secrets, 2003)
 Avant la tempête, Pocket Jeunesse, 2007 ((en) Rising Storm, 2004)
 Sur le sentier de la guerre, Pocket Jeunesse, 2007 ((en) A Dangerous Path, 2004)
-Une sombre prophétie, Pocket Jeunesse, 2008 ((en) The Darkest Hour, 2004)
-Cycle II : La Dernière Prophétie
-Minuit, Pocket Jeunesse, 2008 ((en) Midnight, 2005)
+Une sombre prophétie, Pocket Jeunesse, 2008 ((en) The Darkest Hour, 2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cycle II : La Dernière Prophétie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Minuit, Pocket Jeunesse, 2008 ((en) Midnight, 2005)
 Clair de lune, Pocket Jeunesse, 2009 ((en) Moonrise, 2005)
 Aurore, Pocket Jeunesse, 2009 ((en) Dawn, 2005)
 Nuit étoilée, Pocket Jeunesse, 2010 ((en) Starlight, 2006)
 Crépuscule, Pocket Jeunesse, 2010 ((en) Twilight, 2006)
-Coucher de soleil, Pocket Jeunesse, 2011 ((en) Sunset, 2007)
-Cycle III : Le Pouvoir des Étoiles
-Vision, Pocket Jeunesse, 2011 ((en) The Sight, 2007)
+Coucher de soleil, Pocket Jeunesse, 2011 ((en) Sunset, 2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cycle III : Le Pouvoir des Étoiles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vision, Pocket Jeunesse, 2011 ((en) The Sight, 2007)
 Rivière noire, Pocket Jeunesse, 2012 ((en) Dark River, 2007)
 Exil, Pocket Jeunesse, 2012 ((en) Outcast, 2008)
 Éclipse, Pocket Jeunesse, 2013 ((en) Eclipse, 2008)
 Pénombre, Pocket Jeunesse, 2013 ((en) Long Shadows, 2008)
-Soleil levant, Pocket Jeunesse, 2014 ((en) Sunrise, 2009)
-Cycle IV : Les Signes du destin
-La Quatrième Apprentie, Pocket Jeunesse, 2014 ((en) The Fourth Apprentice, 2009)
+Soleil levant, Pocket Jeunesse, 2014 ((en) Sunrise, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cycle IV : Les Signes du destin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Quatrième Apprentie, Pocket Jeunesse, 2014 ((en) The Fourth Apprentice, 2009)
 Un écho lointain, Pocket Jeunesse, 2015 ((en) Fading Echoes, 2010)
 Des murmures dans la nuit, Pocket Jeunesse, 2015 ((en) Night Whispers, 2010)
 L'Empreinte de la lune, Pocket Jeunesse, 2016 ((en) Sign of the Moon, 2011)
 La Guerrière oubliée, Pocket Jeunesse, 2016 ((en) The Forgotten Warrior, 2011)
-Le Dernier Espoir, Pocket Jeunesse, 2017 ((en) The Last Hope, 2012)
-Cycle V : L'Aube des clans
-Le Sentier du soleil, Pocket Jeunesse, 2017 ((en) The Sun Trail, 2013)
+Le Dernier Espoir, Pocket Jeunesse, 2017 ((en) The Last Hope, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cycle V : L'Aube des clans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Sentier du soleil, Pocket Jeunesse, 2017 ((en) The Sun Trail, 2013)
 Coup de tonnerre, Pocket Jeunesse, 2018 ((en) Thunder Rising, 2013)
 La Première Bataille, Pocket Jeunesse, 2018 ((en) The First Battle, 2014)
 L'Étoile flamboyante, Pocket Jeunesse, 2019 ((en) The Blazing Star, 2014)
 Une forêt divisée, Pocket Jeunesse, 2019 ((en) A Forest Divided, 2015)
-Le Sentier des étoiles, Pocket Jeunesse, 2020 ((en) Path of Stars, 2015)
-Cycle VI : De l'ombre à la lumière
-La Quête de l'apprenti, Pocket Jeunesse, 2020 ((en) The Apprentice's Quest, 2016)
+Le Sentier des étoiles, Pocket Jeunesse, 2020 ((en) Path of Stars, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cycle VI : De l'ombre à la lumière</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La Quête de l'apprenti, Pocket Jeunesse, 2020 ((en) The Apprentice's Quest, 2016)
 Ombre et Tonnerre, Pocket Jeunesse, 2021 ((en) Thunder and Shadow, 2016)
 Éclats de Ciel, Pocket Jeunesse, 2021 ((en) Shattered Sky, 2017)
 Péril nocturne, Pocket Jeunesse, 2022 ((en) Darkest Night, 2017)
 La Rivière de feu, Pocket Jeunesse, 2022 ((en) River of Fire, 2018)
-Au cœur de la tourmente, Pocket Jeunesse, 2023 ((en) The Raging Storm, 2018)
-Cycle VII : La Trahison du code
-Étoiles perdues, Pocket Jeunesse, 2023 ((en) Lost Stars, 2019), 336 p.  (ISBN 978-2-266-33168-5)
+Au cœur de la tourmente, Pocket Jeunesse, 2023 ((en) The Raging Storm, 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cycle VII : La Trahison du code</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Étoiles perdues, Pocket Jeunesse, 2023 ((en) Lost Stars, 2019), 336 p.  (ISBN 978-2-266-33168-5)
 L'Imposteur, Pocket Jeunesse, 2024 ((en) The Silent Thaw, 2019), 384 p.  (ISBN 978-2-266-33448-8)
 (en) Veil of Shadows, 2020
 (en) Darkness Within, 2020
 (en) The Place of No Stars, 2021
-(en) A Light in the Mist, 2021
-Cycle VIII : A Starless Clan
-(en) River, 2022
+(en) A Light in the Mist, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cycle VIII : A Starless Clan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(en) River, 2022
 (en) Sky, 2022
 (en) Shadow, 2023
 (en) Thunder, 2023
 (en) Wind, 2024
-(en) Star, 2024
-Hors-série
-La Quête d’Étoile de Feu, Pocket Jeunesse, 2010 ((en) Firestar's Quest, 2007)
+(en) Star, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hors-série</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La Quête d’Étoile de Feu, Pocket Jeunesse, 2010 ((en) Firestar's Quest, 2007)
 La Prophétie d'Étoile Bleue, Pocket Jeunesse, 2013 ((en) Bluestar's Prophecy, 2009)
 Le Destin d'Étoile de Feuille, Pocket Jeunesse, 2020 ((en) SkyClan's Destiny, 2010)
 La Promesse de l'élu, Pocket Jeunesse, 2014 ((en) Crookedstar's Promise, 2011)
@@ -700,9 +1033,43 @@
 (en) Leopardstar's Honor, 2021
 (en) Onestar's Confession, 2022
 (en) Riverstar's Home, 2023
-(en) Ivypool's Heart, 2024À paraître le 3 septembre 2024
-Livres numériques
-Les livres numériques sont regroupés par trois en édition papier.
+(en) Ivypool's Heart, 2024À paraître le 3 septembre 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Livres numériques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Les livres numériques sont regroupés par trois en édition papier.
 (en) The Untold Stories, 2013
 L'Histoire de Feuille de Houx, 1221, 2020 ((en) Hollyleaf's Story, 2012)
 Le Signe d'Étoile de Brume, 1221, 2020 ((en) Mistystar's Omen, 2012)
@@ -730,39 +1097,262 @@
 (en) A Warrior's Choice, 2021
 (en) Daisy's Kin, 2021
 (en) Blackfoot's Reckoning, 2021
-(en) Spotfur's Rebellion, 2021
-Romans illustrés
-Série Les Aventures de Plume Grise
-Cette trilogie se déroule entre le tome 3 du cycle 2 et le tome 1 du cycle 3. Plume Grise, capturé par les Bipèdes, tente de retrouver son Clan avec l’aide de Millie, sa nouvelle amie. Grâce à un ancien compagnon (Nuage de Jais), Étoile de Feu retrouve son meilleur ami.
+(en) Spotfur's Rebellion, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Série Les Aventures de Plume Grise</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cette trilogie se déroule entre le tome 3 du cycle 2 et le tome 1 du cycle 3. Plume Grise, capturé par les Bipèdes, tente de retrouver son Clan avec l’aide de Millie, sa nouvelle amie. Grâce à un ancien compagnon (Nuage de Jais), Étoile de Feu retrouve son meilleur ami.
 Le Guerrier perdu, Pocket Jeunesse, 2013 ((en) The Lost Warrior, 2007)
 Le Refuge du guerrier, Pocket Jeunesse, 2013 ((en) Warrior's Refuge, 2007)
-Le Retour du guerrier, Pocket Jeunesse, 2013 ((en) Warrior's Return, 2008)
-Série Étoile du Tigre et Sacha
-Cette trilogie raconte comment Étoile du Tigre et Sacha se sont rencontrés, comment ils ont eu leurs enfants (Plume de Faucon et Papillon) et pourquoi Sacha a décidé de les confier au Clan de la Rivière.
+Le Retour du guerrier, Pocket Jeunesse, 2013 ((en) Warrior's Return, 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Série Étoile du Tigre et Sacha</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cette trilogie raconte comment Étoile du Tigre et Sacha se sont rencontrés, comment ils ont eu leurs enfants (Plume de Faucon et Papillon) et pourquoi Sacha a décidé de les confier au Clan de la Rivière.
 Seule dans les bois, Pocket Jeunesse, 2015 ((en) Into the Woods, 2008)
 En fuite !, Pocket Jeunesse, 2015 ((en) Escape from the Forest, 2009)
-Retour aux clans, Pocket Jeunesse, 2015 ((en) Return to the Clans, 2009)
-Série Le Destin de Nuage de Jais
-Cette trilogie se déroule entre les premier et second cycles. Les chats du Clan du Sang n’ont pas arrêté de causer des ennuis aux chats de la forêt : ils chassent Nuage de Jais et Gerboise de leur ferme et volent le gibier des chats sauvages. Comment les en empêcher ?
+Retour aux clans, Pocket Jeunesse, 2015 ((en) Return to the Clans, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Série Le Destin de Nuage de Jais</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cette trilogie se déroule entre les premier et second cycles. Les chats du Clan du Sang n’ont pas arrêté de causer des ennuis aux chats de la forêt : ils chassent Nuage de Jais et Gerboise de leur ferme et volent le gibier des chats sauvages. Comment les en empêcher ?
 Une paix menacée, Pocket Jeunesse, 2014 ((en) Shattered Peace, 2009)
 Un clan menacé, Pocket Jeunesse, 2014 ((en) A Clan in Need, 2010)
-Un cœur de guerrier, Pocket Jeunesse, 2014 ((en) The Heart of a Warrior, 2010)
-Série Le Clan du Ciel et l'Étranger
-La saison des feuilles nouvelles est à venir, et Étoile de Feuille est fière de voir prospérer le Clan du Ciel sous sa direction. Les bois sont giboyeux, l'antre des guerriers est pleine, et Étoile de Feuille attend des petits. Mais un étranger se cache près du territoire du Clan, et les nouveau-nés d´Étoile de Feuille ainsi que le reste du jeune clan pourraient être en danger. Avec les encouragements d´Étoile de Feuille, Sol, un ancien chat domestique, a rejoint les rangs du Clan du Ciel. Il rêve de devenir un grand guerrier, et promet d'être utile et courageux. Mais Étoile de Feuille commence bientôt à se demander si Sol respecte les règles du code guerrier. Et lorsque des actions de Sol conduisent à une catastrophe périlleuse pour le Clan, Étoile de Feuille se demande si elle peut faire lui confiance – avant qu'il soit trop tard.
+Un cœur de guerrier, Pocket Jeunesse, 2014 ((en) The Heart of a Warrior, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Série Le Clan du Ciel et l'Étranger</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>La saison des feuilles nouvelles est à venir, et Étoile de Feuille est fière de voir prospérer le Clan du Ciel sous sa direction. Les bois sont giboyeux, l'antre des guerriers est pleine, et Étoile de Feuille attend des petits. Mais un étranger se cache près du territoire du Clan, et les nouveau-nés d´Étoile de Feuille ainsi que le reste du jeune clan pourraient être en danger. Avec les encouragements d´Étoile de Feuille, Sol, un ancien chat domestique, a rejoint les rangs du Clan du Ciel. Il rêve de devenir un grand guerrier, et promet d'être utile et courageux. Mais Étoile de Feuille commence bientôt à se demander si Sol respecte les règles du code guerrier. Et lorsque des actions de Sol conduisent à une catastrophe périlleuse pour le Clan, Étoile de Feuille se demande si elle peut faire lui confiance – avant qu'il soit trop tard.
 Sauvetage, Pocket Jeunesse, 2020 ((en) The Rescue, 2011)
 Le Code du guerrier, Pocket Jeunesse, 2020 ((en) Beyond the Code, 2011)
-Après l'inondation, Pocket Jeunesse, 2020 ((en) After the Flood, 2012)
-Romans illustrés indépendants
-(en) The Rise of Scourge, 2008
+Après l'inondation, Pocket Jeunesse, 2020 ((en) After the Flood, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Romans illustrés indépendants</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(en) The Rise of Scourge, 2008
 Dans la ville qui borde la forêt, Tiny est un minuscule chaton qui vit chez ses maîtres en compagnie de son frère Chaussette et de sa sœur Ruby (frère et sœur de Étoile de Feu) . Mais il est détesté par ces deux-là et se sent seul. Il décide donc un jour, de se rendre dans la forêt sans prendre en compte les avertissements des autres chats. Mais un chat du nom de Nuage de Tigre(Étoile du Tigre) l'attaque violemment pour défendre son territoire. Cette rencontre le laisse désemparé, avec une rancune profonde et un sentiment d'humiliation. Il s'enfuit de chez lui pour vivre en ville, encouragé par les mensonges de sa sœur Ruby qui souhaite se débarrasser de lui...
 Une ombre au clan de la rivière, Pocket Jeunesse, 2023 ((en) A Shadow in RiverClan, 2020), 208 p.  (ISBN 978-2-266-33085-5)
 Jolie Plume, une guerrière du Clan de la Rivière, n'arrive pas à pardonner sa cheffe Étoile du Léopard pour avoir commandé de la tuer elle et son frère, Pelage d'Orage, sous le commandement cruel d'Étoile du Tigre. Elle repousse ses camarades de Clan et se retrouve seule la plupart du temps. Mais une solitaire, Sacha, arrive au Clan de la Rivière avec ses deux jeunes chatons, et Jolie Plume et Sacha deviennent amies. Alors que Sacha révèle à Jolie Plume l'un de ses plus sombres secrets, Jolie Plume ne sait pas si elle pourra encore croire la parole d'un chat.
 Le Vent du changement, Pocket Jeunesse, 2023 ((en) Winds of Change, 2021), 208 p.  (ISBN 978-2-266-33086-2)
 L'Exil de Lune Noire, Pocket Jeunesse, 2024 ((en) Exile from Shadowclan, 2022), 208 p.  (ISBN 978-2-266-34183-7)
 Le Clan de l'Ombre fait face à deux voies. Un seul sauvera son héritage. Au bord d'une terrible saison des feuilles mortes, le Clan de l'Ombre est au bord de sa propre destruction. Son chef, Étoile Brisée, ne pense qu'à se battre et à se venger. Son ancien mentor, le guerrier retraité Lune Noire, n'a pas eu un parcours facile, mais il a toujours fait passer ses compagnons de clan en premier. Aussi, lorsque Étoile Brisée bannit Lune Noire et le reste des anciens du Clan de l'Ombre aux confins du territoire du clan, Lune Noire est choqué par sa cruauté. Mais il est déterminé à s'assurer que lui et ses compagnons exilés survivent au gel à venir - et vivent pour réclamer le Clan de l'Ombre qu'ils ont toujours connu.
-(en) A Thief in ThunderClan, 2023
-Histoires courtes
-(en) Tigerstar: Heart of Evil or Misplaced Ambition?, 2009
+(en) A Thief in ThunderClan, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Histoires courtes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(en) Tigerstar: Heart of Evil or Misplaced Ambition?, 2009
 (en) Why is Jaypaw Blind?, 2009
 (en) Beyond the Code: Brightspirit's Mercy, 2009
 (en) The Clans Decide, 2009
@@ -770,9 +1360,43 @@
 (en) After Sunset: We Need to Talk, 2009
 (en) After Sunset: The Right Choice?, 2011
 (en) The Elders' Concern, 2011
-(en) The Death of Bright Stream, 2011
-Guides
-(en) Secrets of the Clans, 2007
+(en) The Death of Bright Stream, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des volumes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Guides</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(en) Secrets of the Clans, 2007
 (en) Cats of the Clans, 2008
 (en) Code of the Clans, 2009
 (en) Battles of the Clans, 2010
@@ -781,35 +1405,72 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Personnages de la Guerre des clans</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">La Guerre des Clans conte l'histoire de clans de chats sauvages, les protagonistes changent à chaque cycle. Le premier concerne Nuage de Feu (Rusty) qui deviendra Cœur de Feu puis Étoile de Feu, dans le deuxième cycle ce sont Griffe de Ronce, Poil d’Écureuil (Nuage d’Écureuil), Jolie Plume, Feuille de Lune (Nuage de Feuille), Plume de Jais .Le troisième cycle est centré sur les (faux) petits de Griffe de Ronce et de Poil d’Écureuil, nommé Feuille de Houx , Pelage de Lion et Œil de Geai. Dans le quatrième cycle Pelage de Lion et Œil de Geai sont encore présents mais avec en plus Aile de Colombe (Nuage de Colombe) et Feuille de lys (Nuage de Lys). Dans le cinquième cycle les héros sont Ciel Bleu, Tonnerre, Gris Poil. Le sixième cycle lui, suit le point de vue des vrais petits d’Étoile de Ronce et de Poil d’Écureuil : Nuage d'Aulne et Nuage d'Étincelles mais également Nuage de Brindille et Nuage de Violette.
-Description des personnages
-Étoile de Feu : c'est un ancien chat domestique qui a rejoint le Clan du Tonnerre sous le nom de Nuage de Feu puis de Cœur de Feu. Vers la fin du cycle 1, il devient le chef du Clan du Tonnerre. Il réussit à empêcher le Clan du Tonnerre de tomber entre les pattes du tyrannique Étoile du Tigre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_clans_(cycle_littéraire)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_clans_(cycle_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Personnages de la Guerre des clans</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Description des personnages</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étoile de Feu : c'est un ancien chat domestique qui a rejoint le Clan du Tonnerre sous le nom de Nuage de Feu puis de Cœur de Feu. Vers la fin du cycle 1, il devient le chef du Clan du Tonnerre. Il réussit à empêcher le Clan du Tonnerre de tomber entre les pattes du tyrannique Étoile du Tigre.
 Étoile Bleue : c'est la chef du Clan du Tonnerre au début du cycle 1. Elle décide de prendre Étoile de Feu comme apprenti et ensuite comme lieutenant malgré ses origines de chat domestique. La trahison de Griffe de Tigre la bouleverse complètement. Elle meurt en se sacrifiant pour son Clan.
 Plume Grise : c'est le meilleur ami d'Étoile de Feu. Il est un combattant loyal au clan du Tonnerre. Lors du cycle 1, il tombe amoureux de Rivière d'Argent , une chatte du Clan de la Rivière, avec qui il a deux petits. Lors du départ des Clans pour se rendre sur leur nouveau territoire (cycle 2), il est capturé par des Bipèdes. Il fait sa réapparition quelques tomes plus tard, accompagné d'une nouvelle chatte, Millie, avec qui il a par la suite 3 chatons.
 Étoile du Tigre : c'est l'antagoniste principal du cycle 1. C'est un ancien guerrier du Clan du Tonnerre très ambitieux qui n'hésite pas à tuer ses prédécesseurs pour accéder au poste de chef qu'il convoite énormément. On le retrouve dans les cycles suivants où il essaye de manipuler des guerriers depuis la Forêt Sombre afin de détruire le Clan du Tonnerre qu'il a toujours haï. 
